--- a/instance/zyjk/SAAS/i/i_saasuser_case.xlsx
+++ b/instance/zyjk/SAAS/i/i_saasuser_case.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="223">
   <si>
     <t>类型</t>
   </si>
@@ -1086,10 +1086,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"$.code":200}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1297,6 +1293,10 @@
   </si>
   <si>
     <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"$.code":200,"$.msg":"success","$.data":"true"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1823,74 +1823,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1910,7 +1842,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2171,9 +2103,9 @@
   </sheetPr>
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -2205,16 +2137,16 @@
         <v>59</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C1" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>203</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>204</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>3</v>
@@ -2223,7 +2155,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="43" t="s">
         <v>146</v>
@@ -2235,19 +2167,19 @@
         <v>55</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>57</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O1" s="46" t="s">
         <v>56</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="47" t="s">
         <v>84</v>
@@ -2259,7 +2191,7 @@
     <row r="2" spans="1:18" ht="46.8" customHeight="1">
       <c r="A2" s="50"/>
       <c r="B2" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2278,12 +2210,12 @@
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
       <c r="Q2" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1">
       <c r="B3" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="56" t="s">
         <v>11</v>
@@ -2296,17 +2228,14 @@
         <v>12</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
@@ -2319,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="56" t="s">
         <v>11</v>
@@ -2349,7 +2278,7 @@
     </row>
     <row r="5" spans="1:18" ht="43.8" customHeight="1">
       <c r="B5" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>15</v>
@@ -2369,9 +2298,6 @@
       <c r="J5" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>47</v>
-      </c>
       <c r="M5" s="34" t="s">
         <v>53</v>
       </c>
@@ -2382,7 +2308,7 @@
     </row>
     <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
       <c r="B6" s="56" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>15</v>
@@ -2416,7 +2342,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>18</v>
@@ -2429,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
@@ -2449,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>18</v>
@@ -2462,7 +2388,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
@@ -2484,7 +2410,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>18</v>
@@ -2497,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
@@ -2516,7 +2442,7 @@
     </row>
     <row r="10" spans="1:18" ht="32.549999999999997" customHeight="1">
       <c r="B10" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="56" t="s">
         <v>43</v>
@@ -2536,15 +2462,12 @@
       <c r="J10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="K10" s="59" t="s">
-        <v>90</v>
-      </c>
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:18" ht="38.549999999999997" customHeight="1">
       <c r="B11" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C11" s="56" t="s">
         <v>43</v>
@@ -2564,9 +2487,6 @@
       <c r="J11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>90</v>
-      </c>
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
     </row>
@@ -2575,7 +2495,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C12" s="56" t="s">
         <v>43</v>
@@ -2588,7 +2508,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
@@ -2610,7 +2530,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="56" t="s">
         <v>43</v>
@@ -2623,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
@@ -2642,7 +2562,7 @@
     </row>
     <row r="14" spans="1:18" ht="85.8" customHeight="1">
       <c r="B14" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" s="56" t="s">
         <v>43</v>
@@ -2661,9 +2581,6 @@
       <c r="I14" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="K14" s="59" t="s">
-        <v>90</v>
-      </c>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
     </row>
@@ -2672,7 +2589,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C15" s="56" t="s">
         <v>43</v>
@@ -2685,7 +2602,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -2705,7 +2622,7 @@
     <row r="16" spans="1:18" s="56" customFormat="1" ht="61.8" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="56" t="s">
         <v>18</v>
@@ -2724,18 +2641,16 @@
       <c r="J16" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="K16" s="59" t="s">
-        <v>90</v>
-      </c>
+      <c r="K16" s="59"/>
       <c r="L16" s="59"/>
       <c r="Q16" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="56" customFormat="1" ht="64.8" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="56" t="s">
         <v>18</v>
@@ -2754,14 +2669,12 @@
       <c r="J17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="59" t="s">
-        <v>125</v>
-      </c>
+      <c r="K17" s="59"/>
       <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:18" ht="46.2" customHeight="1">
       <c r="B18" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
@@ -2780,7 +2693,7 @@
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R18" s="54" t="s">
         <v>151</v>
@@ -2788,7 +2701,7 @@
     </row>
     <row r="19" spans="1:18" ht="46.2" customHeight="1">
       <c r="B19" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -2814,7 +2727,7 @@
     </row>
     <row r="20" spans="1:18" ht="60.45" customHeight="1">
       <c r="B20" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>11</v>
@@ -2826,23 +2739,20 @@
         <v>93</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
       <c r="J20" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="21" spans="1:18" ht="78.45" customHeight="1">
       <c r="A21" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>11</v>
@@ -2854,16 +2764,13 @@
         <v>93</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="K21" s="59" t="s">
-        <v>90</v>
-      </c>
       <c r="Q21" s="59" t="s">
         <v>115</v>
       </c>
@@ -2873,13 +2780,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>96</v>
@@ -2890,15 +2797,12 @@
       <c r="H22" s="54"/>
       <c r="I22" s="54"/>
       <c r="J22" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="59" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="60.45" customHeight="1">
       <c r="B23" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" s="65" t="s">
         <v>18</v>
@@ -2915,16 +2819,13 @@
       <c r="H23" s="54"/>
       <c r="I23" s="54"/>
       <c r="J23" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" s="59" t="s">
-        <v>32</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:18" ht="58.8" customHeight="1">
       <c r="B24" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C24" s="65" t="s">
         <v>18</v>
@@ -2933,7 +2834,7 @@
         <v>98</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="62" t="s">
         <v>14</v>
@@ -2941,15 +2842,12 @@
       <c r="H24" s="54"/>
       <c r="I24" s="54"/>
       <c r="J24" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" s="59" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="59.55" customHeight="1">
       <c r="B25" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" s="65" t="s">
         <v>18</v>
@@ -2966,18 +2864,15 @@
       <c r="H25" s="54"/>
       <c r="I25" s="54"/>
       <c r="J25" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="52.2">
       <c r="B26" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26" s="65" t="s">
         <v>18</v>
@@ -2995,16 +2890,13 @@
       <c r="I26" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="27" spans="1:18" ht="169.8" customHeight="1">
       <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C27" s="65" t="s">
         <v>18</v>
@@ -3023,16 +2915,13 @@
       <c r="J27" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="28" spans="1:18" ht="52.2">
       <c r="A28" s="48" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="65" t="s">
         <v>18</v>
@@ -3050,16 +2939,13 @@
       <c r="I28" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="59" t="s">
-        <v>32</v>
-      </c>
       <c r="Q28" s="59" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="52.2">
       <c r="B29" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="65" t="s">
         <v>18</v>
@@ -3077,13 +2963,10 @@
       <c r="I29" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="K29" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="30" spans="1:18" ht="99.45" customHeight="1">
       <c r="B30" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="65" t="s">
         <v>18</v>
@@ -3102,41 +2985,38 @@
       <c r="J30" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="59" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="31" spans="1:18" ht="99.6" customHeight="1">
       <c r="B31" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31" s="65" t="s">
         <v>18</v>
       </c>
       <c r="E31" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="73" t="s">
         <v>199</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>200</v>
       </c>
       <c r="G31" s="59" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K31" s="73" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="L31" s="73"/>
     </row>
-    <row r="32" spans="1:18" ht="52.2">
+    <row r="32" spans="1:18" ht="34.799999999999997">
       <c r="B32" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32" s="65" t="s">
         <v>18</v>
@@ -3152,13 +3032,10 @@
       </c>
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
-      <c r="K32" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" ht="52.2">
+    </row>
+    <row r="33" spans="2:17" ht="34.799999999999997">
       <c r="B33" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C33" s="65" t="s">
         <v>18</v>
@@ -3174,13 +3051,10 @@
       </c>
       <c r="H33" s="54"/>
       <c r="I33" s="54"/>
-      <c r="K33" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="34" spans="2:17" ht="52.2">
       <c r="B34" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="65" t="s">
         <v>112</v>
@@ -3198,13 +3072,10 @@
       <c r="I34" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="K34" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="35" spans="2:17" ht="69.599999999999994">
       <c r="B35" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="65" t="s">
         <v>112</v>
@@ -3222,13 +3093,10 @@
       <c r="I35" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="K35" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="36" spans="2:17" ht="52.2">
       <c r="B36" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C36" s="65" t="s">
         <v>112</v>
@@ -3244,13 +3112,10 @@
       </c>
       <c r="H36" s="54"/>
       <c r="I36" s="54"/>
-      <c r="K36" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="37" spans="2:17" ht="69.599999999999994">
       <c r="B37" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C37" s="65" t="s">
         <v>112</v>
@@ -3268,13 +3133,10 @@
       <c r="I37" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="K37" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="38" spans="2:17" ht="69.599999999999994">
       <c r="B38" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C38" s="65" t="s">
         <v>112</v>
@@ -3292,13 +3154,10 @@
       <c r="I38" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="K38" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="39" spans="2:17" ht="52.2">
       <c r="B39" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C39" s="65" t="s">
         <v>112</v>
@@ -3316,13 +3175,10 @@
       <c r="I39" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="K39" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="40" spans="2:17" ht="52.2">
       <c r="B40" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C40" s="65" t="s">
         <v>112</v>
@@ -3340,13 +3196,10 @@
       <c r="I40" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="K40" s="59" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="41" spans="2:17" ht="128.55000000000001" customHeight="1">
       <c r="B41" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C41" s="65" t="s">
         <v>134</v>
@@ -3363,10 +3216,7 @@
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
       <c r="J41" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="K41" s="59" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="Q41" s="59" t="s">
         <v>181</v>
@@ -3374,7 +3224,7 @@
     </row>
     <row r="42" spans="2:17" ht="52.2">
       <c r="B42" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" s="65" t="s">
         <v>134</v>
@@ -3394,12 +3244,12 @@
       </c>
       <c r="J42" s="62"/>
       <c r="K42" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="2:17" ht="52.2">
       <c r="B43" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="65" t="s">
         <v>134</v>
@@ -3408,24 +3258,21 @@
         <v>138</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H43" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I43" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="K43" s="59" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="104.4">
       <c r="B44" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="65" t="s">
         <v>134</v>
@@ -3444,13 +3291,10 @@
       <c r="J44" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="K44" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" ht="52.2">
+    </row>
+    <row r="45" spans="2:17" ht="45">
       <c r="B45" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="65" t="s">
         <v>134</v>
@@ -3462,21 +3306,18 @@
         <v>142</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H45" s="77" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I45" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="K45" s="59" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="52.2">
       <c r="B46" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="65" t="s">
         <v>134</v>
@@ -3495,12 +3336,12 @@
         <v>169</v>
       </c>
       <c r="K46" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="52.2">
       <c r="B47" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>134</v>
@@ -3519,12 +3360,12 @@
         <v>169</v>
       </c>
       <c r="K47" s="59" t="s">
-        <v>178</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="52.2">
       <c r="B48" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C48" s="65" t="s">
         <v>134</v>
@@ -3543,12 +3384,12 @@
         <v>169</v>
       </c>
       <c r="K48" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="2:11" ht="52.2">
       <c r="B49" s="56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="65" t="s">
         <v>134</v>
@@ -3567,7 +3408,7 @@
         <v>174</v>
       </c>
       <c r="K49" s="59" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -4211,7 +4052,7 @@
         <v>90</v>
       </c>
       <c r="Q16" s="56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="56" customFormat="1" ht="64.8" customHeight="1">
@@ -4265,7 +4106,7 @@
       <c r="O18" s="53"/>
       <c r="P18" s="53"/>
       <c r="Q18" s="54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R18" s="54" t="s">
         <v>151</v>
@@ -4382,7 +4223,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="59" t="s">
         <v>96</v>
@@ -4392,7 +4233,7 @@
       </c>
       <c r="H22" s="54"/>
       <c r="I22" s="59" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J22" s="59" t="s">
         <v>31</v>
@@ -4425,7 +4266,7 @@
       </c>
       <c r="H23" s="54"/>
       <c r="I23" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J23" s="59" t="s">
         <v>31</v>
@@ -4452,14 +4293,14 @@
         <v>98</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="58" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="54"/>
       <c r="I24" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J24" s="59" t="s">
         <v>31</v>
@@ -4492,7 +4333,7 @@
       </c>
       <c r="H25" s="54"/>
       <c r="I25" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J25" s="59" t="s">
         <v>31</v>
@@ -4504,7 +4345,7 @@
       <c r="N25" s="68"/>
       <c r="P25" s="68"/>
       <c r="Q25" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="52.2">
@@ -4680,21 +4521,21 @@
         <v>18</v>
       </c>
       <c r="E31" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="73" t="s">
         <v>199</v>
-      </c>
-      <c r="F31" s="73" t="s">
-        <v>200</v>
       </c>
       <c r="G31" s="73" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="73"/>
       <c r="I31" s="73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J31" s="73"/>
       <c r="K31" s="73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L31" s="74"/>
       <c r="N31" s="75"/>
@@ -4976,7 +4817,7 @@
       </c>
       <c r="H41" s="54"/>
       <c r="I41" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K41" s="59" t="s">
         <v>32</v>
@@ -5032,10 +4873,10 @@
         <v>138</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H43" s="59" t="s">
         <v>174</v>
@@ -5094,7 +4935,7 @@
         <v>142</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H45" s="59" t="s">
         <v>174</v>

--- a/instance/zyjk/SAAS/i/i_saasuser_case.xlsx
+++ b/instance/zyjk/SAAS/i/i_saasuser_case.xlsx
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="224">
   <si>
     <t>类型</t>
   </si>
@@ -1230,14 +1230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 "coordinate": "1",
  "isEasyPSW": 10,
@@ -1288,15 +1280,33 @@
     <t>postDownfile</t>
   </si>
   <si>
-    <t>{"phone":"str(Data_PO.getPhone())","idCardNo":"str(Data_PO.getIdCard())"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"userNo":"16766667777","orgno":"\'wgzx\' + str(Data_PO.getFigures(3))","orgId":"select orgCode from sys_user_detail where userNo='16766667777'"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"$.code":200,"$.msg":"success","$.data":"true"}</t>
+    <t>{"deviceTag":"app"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"str(Data_PO.getPhone())","idCardNo":"str(Data_PO.getIdCard())","itemId":"select itemId from saashypertensiontest.ecf_follow_info where orgId = {{orgId}} and followUpName = '一级1' limit 1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currPage=1&amp;itemId={{itemId}}&amp;pId={{glempild}}&amp;pageSize=50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "empiId": "{{glempild}}",
+"historyState": 0,
+ "receptionOrgNo": "306",
+"signsAndSymptoms": "就这样",
+ "treatmentOf": "好的"
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1823,6 +1833,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1842,7 +1920,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2104,8 +2182,8 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="17.399999999999999"/>
@@ -2119,7 +2197,7 @@
     <col min="7" max="7" width="16.6640625" style="62" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" style="62" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" style="62" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" style="59" customWidth="1"/>
+    <col min="10" max="10" width="31" style="59" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" style="59" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" style="59" customWidth="1"/>
     <col min="13" max="13" width="14" style="59" customWidth="1"/>
@@ -2167,19 +2245,19 @@
         <v>55</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>57</v>
       </c>
       <c r="N1" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O1" s="46" t="s">
         <v>56</v>
       </c>
       <c r="P1" s="46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="47" t="s">
         <v>84</v>
@@ -2190,9 +2268,7 @@
     </row>
     <row r="2" spans="1:18" ht="46.8" customHeight="1">
       <c r="A2" s="50"/>
-      <c r="B2" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B2" s="56"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="52" t="s">
@@ -2210,13 +2286,11 @@
       <c r="O2" s="53"/>
       <c r="P2" s="53"/>
       <c r="Q2" s="54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45" customHeight="1">
-      <c r="B3" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B3" s="56"/>
       <c r="C3" s="56" t="s">
         <v>11</v>
       </c>
@@ -2228,14 +2302,14 @@
         <v>12</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H3" s="54" t="s">
         <v>205</v>
       </c>
       <c r="I3" s="54"/>
       <c r="J3" s="59" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
@@ -2247,9 +2321,7 @@
       <c r="A4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B4" s="56"/>
       <c r="C4" s="56" t="s">
         <v>11</v>
       </c>
@@ -2277,9 +2349,7 @@
       <c r="P4" s="36"/>
     </row>
     <row r="5" spans="1:18" ht="43.8" customHeight="1">
-      <c r="B5" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B5" s="56"/>
       <c r="C5" s="56" t="s">
         <v>15</v>
       </c>
@@ -2308,7 +2378,7 @@
     </row>
     <row r="6" spans="1:18" ht="40.799999999999997" customHeight="1">
       <c r="B6" s="56" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>15</v>
@@ -2341,9 +2411,7 @@
       <c r="A7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B7" s="56"/>
       <c r="C7" s="56" t="s">
         <v>18</v>
       </c>
@@ -2355,7 +2423,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
@@ -2374,9 +2442,7 @@
       <c r="A8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B8" s="56"/>
       <c r="C8" s="56" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2454,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
@@ -2409,9 +2475,7 @@
       <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B9" s="56"/>
       <c r="C9" s="56" t="s">
         <v>18</v>
       </c>
@@ -2423,7 +2487,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
@@ -2441,9 +2505,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="32.549999999999997" customHeight="1">
-      <c r="B10" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B10" s="56"/>
       <c r="C10" s="56" t="s">
         <v>43</v>
       </c>
@@ -2466,9 +2528,7 @@
       <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:18" ht="38.549999999999997" customHeight="1">
-      <c r="B11" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B11" s="56"/>
       <c r="C11" s="56" t="s">
         <v>43</v>
       </c>
@@ -2494,9 +2554,7 @@
       <c r="A12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B12" s="56"/>
       <c r="C12" s="56" t="s">
         <v>43</v>
       </c>
@@ -2508,7 +2566,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
@@ -2529,9 +2587,7 @@
       <c r="A13" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B13" s="56"/>
       <c r="C13" s="56" t="s">
         <v>43</v>
       </c>
@@ -2543,7 +2599,7 @@
         <v>26</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H13" s="54"/>
       <c r="I13" s="54"/>
@@ -2561,9 +2617,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="85.8" customHeight="1">
-      <c r="B14" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B14" s="56"/>
       <c r="C14" s="56" t="s">
         <v>43</v>
       </c>
@@ -2588,9 +2642,7 @@
       <c r="A15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B15" s="56"/>
       <c r="C15" s="56" t="s">
         <v>43</v>
       </c>
@@ -2602,7 +2654,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
@@ -2621,9 +2673,6 @@
     </row>
     <row r="16" spans="1:18" s="56" customFormat="1" ht="61.8" customHeight="1">
       <c r="A16" s="48"/>
-      <c r="B16" s="56" t="s">
-        <v>207</v>
-      </c>
       <c r="C16" s="56" t="s">
         <v>18</v>
       </c>
@@ -2649,9 +2698,6 @@
     </row>
     <row r="17" spans="1:18" s="56" customFormat="1" ht="64.8" customHeight="1">
       <c r="A17" s="48"/>
-      <c r="B17" s="56" t="s">
-        <v>207</v>
-      </c>
       <c r="C17" s="56" t="s">
         <v>18</v>
       </c>
@@ -2673,9 +2719,7 @@
       <c r="L17" s="59"/>
     </row>
     <row r="18" spans="1:18" ht="46.2" customHeight="1">
-      <c r="B18" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B18" s="56"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52" t="s">
@@ -2695,14 +2739,10 @@
       <c r="Q18" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="R18" s="54" t="s">
-        <v>151</v>
-      </c>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:18" ht="46.2" customHeight="1">
-      <c r="B19" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B19" s="56"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52" t="s">
@@ -2714,21 +2754,19 @@
       </c>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="53" t="s">
+        <v>219</v>
+      </c>
       <c r="K19" s="53"/>
       <c r="L19" s="53"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
       <c r="P19" s="53"/>
-      <c r="Q19" s="54" t="s">
-        <v>120</v>
-      </c>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:18" ht="60.45" customHeight="1">
-      <c r="B20" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B20" s="56"/>
       <c r="C20" s="65" t="s">
         <v>11</v>
       </c>
@@ -2739,7 +2777,7 @@
         <v>93</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
@@ -2751,9 +2789,7 @@
       <c r="A21" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B21" s="56"/>
       <c r="C21" s="65" t="s">
         <v>11</v>
       </c>
@@ -2764,7 +2800,7 @@
         <v>93</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
@@ -2779,9 +2815,7 @@
       <c r="A22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B22" s="56"/>
       <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
@@ -2801,9 +2835,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="60.45" customHeight="1">
-      <c r="B23" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B23" s="56"/>
       <c r="C23" s="65" t="s">
         <v>18</v>
       </c>
@@ -2824,9 +2856,7 @@
       <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:18" ht="58.8" customHeight="1">
-      <c r="B24" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B24" s="56"/>
       <c r="C24" s="65" t="s">
         <v>18</v>
       </c>
@@ -2846,9 +2876,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="59.55" customHeight="1">
-      <c r="B25" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B25" s="56"/>
       <c r="C25" s="65" t="s">
         <v>18</v>
       </c>
@@ -2871,9 +2899,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="52.2">
-      <c r="B26" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B26" s="56"/>
       <c r="C26" s="65" t="s">
         <v>18</v>
       </c>
@@ -2895,9 +2921,7 @@
       <c r="A27" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B27" s="56"/>
       <c r="C27" s="65" t="s">
         <v>18</v>
       </c>
@@ -2920,9 +2944,7 @@
       <c r="A28" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B28" s="56"/>
       <c r="C28" s="65" t="s">
         <v>18</v>
       </c>
@@ -2944,9 +2966,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="52.2">
-      <c r="B29" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B29" s="56"/>
       <c r="C29" s="65" t="s">
         <v>18</v>
       </c>
@@ -2965,9 +2985,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="99.45" customHeight="1">
-      <c r="B30" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B30" s="56"/>
       <c r="C30" s="65" t="s">
         <v>18</v>
       </c>
@@ -2987,9 +3005,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="99.6" customHeight="1">
-      <c r="B31" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B31" s="56"/>
       <c r="C31" s="65" t="s">
         <v>18</v>
       </c>
@@ -3003,21 +3019,17 @@
         <v>14</v>
       </c>
       <c r="H31" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I31" s="73"/>
       <c r="J31" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="K31" s="73" t="s">
-        <v>222</v>
-      </c>
+      <c r="K31" s="73"/>
       <c r="L31" s="73"/>
     </row>
     <row r="32" spans="1:18" ht="34.799999999999997">
-      <c r="B32" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B32" s="56"/>
       <c r="C32" s="65" t="s">
         <v>18</v>
       </c>
@@ -3034,9 +3046,7 @@
       <c r="I32" s="54"/>
     </row>
     <row r="33" spans="2:17" ht="34.799999999999997">
-      <c r="B33" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B33" s="56"/>
       <c r="C33" s="65" t="s">
         <v>18</v>
       </c>
@@ -3053,9 +3063,7 @@
       <c r="I33" s="54"/>
     </row>
     <row r="34" spans="2:17" ht="52.2">
-      <c r="B34" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B34" s="56"/>
       <c r="C34" s="65" t="s">
         <v>112</v>
       </c>
@@ -3074,9 +3082,7 @@
       </c>
     </row>
     <row r="35" spans="2:17" ht="69.599999999999994">
-      <c r="B35" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B35" s="56"/>
       <c r="C35" s="65" t="s">
         <v>112</v>
       </c>
@@ -3091,13 +3097,11 @@
       </c>
       <c r="H35" s="54"/>
       <c r="I35" s="54" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="52.2">
-      <c r="B36" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B36" s="56"/>
       <c r="C36" s="65" t="s">
         <v>112</v>
       </c>
@@ -3114,9 +3118,7 @@
       <c r="I36" s="54"/>
     </row>
     <row r="37" spans="2:17" ht="69.599999999999994">
-      <c r="B37" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B37" s="56"/>
       <c r="C37" s="65" t="s">
         <v>112</v>
       </c>
@@ -3135,9 +3137,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="69.599999999999994">
-      <c r="B38" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B38" s="56"/>
       <c r="C38" s="65" t="s">
         <v>112</v>
       </c>
@@ -3156,9 +3156,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="52.2">
-      <c r="B39" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B39" s="56"/>
       <c r="C39" s="65" t="s">
         <v>112</v>
       </c>
@@ -3177,9 +3175,7 @@
       </c>
     </row>
     <row r="40" spans="2:17" ht="52.2">
-      <c r="B40" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B40" s="56"/>
       <c r="C40" s="65" t="s">
         <v>112</v>
       </c>
@@ -3198,9 +3194,7 @@
       </c>
     </row>
     <row r="41" spans="2:17" ht="128.55000000000001" customHeight="1">
-      <c r="B41" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B41" s="56"/>
       <c r="C41" s="65" t="s">
         <v>134</v>
       </c>
@@ -3216,16 +3210,14 @@
       <c r="H41" s="54"/>
       <c r="I41" s="54"/>
       <c r="J41" s="62" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="Q41" s="59" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="42" spans="2:17" ht="52.2">
-      <c r="B42" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B42" s="56"/>
       <c r="C42" s="65" t="s">
         <v>134</v>
       </c>
@@ -3248,9 +3240,7 @@
       </c>
     </row>
     <row r="43" spans="2:17" ht="52.2">
-      <c r="B43" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B43" s="56"/>
       <c r="C43" s="65" t="s">
         <v>134</v>
       </c>
@@ -3261,19 +3251,17 @@
         <v>192</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H43" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I43" s="59" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="44" spans="2:17" ht="104.4">
-      <c r="B44" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B44" s="56"/>
       <c r="C44" s="65" t="s">
         <v>134</v>
       </c>
@@ -3293,9 +3281,7 @@
       </c>
     </row>
     <row r="45" spans="2:17" ht="45">
-      <c r="B45" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B45" s="56"/>
       <c r="C45" s="65" t="s">
         <v>134</v>
       </c>
@@ -3306,19 +3292,17 @@
         <v>142</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H45" s="77" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I45" s="59" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="52.2">
-      <c r="B46" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B46" s="56"/>
       <c r="C46" s="65" t="s">
         <v>134</v>
       </c>
@@ -3340,9 +3324,7 @@
       </c>
     </row>
     <row r="47" spans="2:17" ht="52.2">
-      <c r="B47" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B47" s="56"/>
       <c r="C47" s="65" t="s">
         <v>134</v>
       </c>
@@ -3364,9 +3346,7 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="52.2">
-      <c r="B48" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B48" s="56"/>
       <c r="C48" s="65" t="s">
         <v>134</v>
       </c>
@@ -3388,9 +3368,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" ht="52.2">
-      <c r="B49" s="56" t="s">
-        <v>207</v>
-      </c>
+      <c r="B49" s="56"/>
       <c r="C49" s="65" t="s">
         <v>134</v>
       </c>
